--- a/OREI_files/10-herd data/1_keys for data frames.xlsx
+++ b/OREI_files/10-herd data/1_keys for data frames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{05D2F12A-D737-4AED-A1D2-0243AA02B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE70B3D9-6824-4C96-8EC5-A38E48977B71}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{05D2F12A-D737-4AED-A1D2-0243AA02B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92A0653E-EED2-4AA6-87EB-EDD88D2A9087}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{FFBC8AFB-7D20-4526-AE92-1A7609D5A156}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FFBC8AFB-7D20-4526-AE92-1A7609D5A156}"/>
   </bookViews>
   <sheets>
     <sheet name="incidence and elimination" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="948">
   <si>
     <t>sort_3_15</t>
   </si>
@@ -4750,6 +4750,12 @@
   </si>
   <si>
     <t>nasX_1_2_?_4</t>
+  </si>
+  <si>
+    <t>lact_grp</t>
+  </si>
+  <si>
+    <t>parity GROUP for each cow enrolled; first, second, third, fourth_plus</t>
   </si>
 </sst>
 </file>
@@ -5394,10 +5400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4051056-258C-4635-A0C6-B13FC2CB137E}">
-  <dimension ref="A1:L356"/>
+  <dimension ref="A1:L357"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A256" zoomScale="75" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260:XFD260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7349,463 +7355,463 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B260" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="1" t="s">
+    <row r="262" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B262" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B263" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B264" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B265" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B266" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B267" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="1" t="s">
+    <row r="268" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B268" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A268" s="1" t="s">
+    <row r="269" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A269" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B269" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" s="1" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B270" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="1" t="s">
+    <row r="271" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B271" s="2" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B271" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B272" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B273" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B274" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B275" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A275" s="1" t="s">
+    <row r="276" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A276" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B276" s="2" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B276" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B277" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B278" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B279" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="1" t="s">
+    <row r="280" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B280" s="7" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A280" s="1" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B280" s="8" t="s">
+      <c r="B281" s="8" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A281" s="1" t="s">
+    <row r="282" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A282" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B281" s="9" t="s">
+      <c r="B282" s="9" t="s">
         <v>467</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A282" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B283" s="8" t="s">
+      <c r="B284" s="8" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A284" s="1" t="s">
+    <row r="285" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A285" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B284" s="9" t="s">
+      <c r="B285" s="9" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="1" t="s">
+    <row r="286" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B286" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A286" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B286" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B287" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B288" s="10" t="s">
-        <v>474</v>
+        <v>284</v>
+      </c>
+      <c r="B288" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B291" s="11" t="s">
-        <v>477</v>
+        <v>287</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B292" s="11" t="s">
+      <c r="B293" s="11" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A293" s="1" t="s">
+    <row r="294" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A294" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B293" s="12" t="s">
+      <c r="B294" s="12" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B294" s="11" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B295" t="s">
-        <v>481</v>
+        <v>291</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B296" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B297" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B298" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B299" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A299" s="1" t="s">
+    <row r="300" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A300" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B300" s="2" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B300" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B301" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B302" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B303" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B304" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B305" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B306" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B307" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B308" t="s">
-        <v>447</v>
+        <v>493</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B309" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B310" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B311" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B312" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B313" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B314" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B315" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A315" s="1" t="s">
+    <row r="316" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A316" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B316" s="2" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B316" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B317" t="s">
         <v>412</v>
@@ -7813,7 +7819,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B318" t="s">
         <v>412</v>
@@ -7821,7 +7827,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B319" t="s">
         <v>412</v>
@@ -7829,7 +7835,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B320" t="s">
         <v>412</v>
@@ -7837,7 +7843,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B321" t="s">
         <v>412</v>
@@ -7845,7 +7851,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B322" t="s">
         <v>412</v>
@@ -7853,7 +7859,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B323" t="s">
         <v>412</v>
@@ -7861,7 +7867,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B324" t="s">
         <v>412</v>
@@ -7869,7 +7875,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B325" t="s">
         <v>412</v>
@@ -7877,7 +7883,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B326" t="s">
         <v>412</v>
@@ -7885,7 +7891,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B327" t="s">
         <v>412</v>
@@ -7893,7 +7899,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B328" t="s">
         <v>412</v>
@@ -7901,7 +7907,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B329" t="s">
         <v>412</v>
@@ -7909,7 +7915,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B330" t="s">
         <v>412</v>
@@ -7917,7 +7923,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B331" t="s">
         <v>412</v>
@@ -7925,7 +7931,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B332" t="s">
         <v>412</v>
@@ -7933,7 +7939,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B333" t="s">
         <v>412</v>
@@ -7941,47 +7947,47 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B334" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>407</v>
+        <v>331</v>
+      </c>
+      <c r="B335" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A337" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B337" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A337" s="1" t="s">
+    <row r="338" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A338" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B338" s="2" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A338" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B338" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B339" t="s">
         <v>410</v>
@@ -7989,7 +7995,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B340" t="s">
         <v>410</v>
@@ -7997,7 +8003,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B341" t="s">
         <v>410</v>
@@ -8005,7 +8011,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B342" t="s">
         <v>410</v>
@@ -8013,7 +8019,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B343" t="s">
         <v>410</v>
@@ -8021,7 +8027,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B344" t="s">
         <v>410</v>
@@ -8029,7 +8035,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B345" t="s">
         <v>410</v>
@@ -8037,7 +8043,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B346" t="s">
         <v>410</v>
@@ -8045,7 +8051,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B347" t="s">
         <v>410</v>
@@ -8053,7 +8059,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B348" t="s">
         <v>410</v>
@@ -8061,7 +8067,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B349" t="s">
         <v>410</v>
@@ -8069,7 +8075,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B350" t="s">
         <v>410</v>
@@ -8077,7 +8083,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B351" t="s">
         <v>410</v>
@@ -8085,7 +8091,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B352" t="s">
         <v>410</v>
@@ -8093,7 +8099,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B353" t="s">
         <v>410</v>
@@ -8101,7 +8107,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B354" t="s">
         <v>410</v>
@@ -8109,7 +8115,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B355" t="s">
         <v>410</v>
@@ -8117,9 +8123,17 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B356" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B357" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8134,10 +8148,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFD4F4A-4541-4668-8124-B1B65A24A496}">
-  <dimension ref="A1:B353"/>
+  <dimension ref="A1:B354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B307" sqref="B307"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10549,417 +10563,425 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B302" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B303" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A303" s="14" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="14" t="s">
         <v>727</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B304" t="s">
         <v>787</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A304" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B304" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B305" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
-        <v>728</v>
+        <v>13</v>
       </c>
       <c r="B306" t="s">
-        <v>443</v>
+        <v>785</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>55</v>
+        <v>728</v>
       </c>
       <c r="B307" t="s">
-        <v>784</v>
+        <v>443</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
-        <v>729</v>
+        <v>55</v>
       </c>
       <c r="B308" t="s">
-        <v>444</v>
+        <v>784</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
-        <v>616</v>
+        <v>729</v>
       </c>
       <c r="B309" t="s">
-        <v>783</v>
+        <v>444</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>730</v>
+        <v>616</v>
       </c>
       <c r="B310" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>656</v>
+        <v>730</v>
       </c>
       <c r="B311" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B312" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B313" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A313" s="14" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B314" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A314" s="1" t="s">
+    <row r="315" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A315" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B315" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315" s="1" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B316" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A316" s="1" t="s">
+    <row r="317" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A317" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B317" s="2" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B317" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B318" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B319" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B320" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B321" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A321" s="1" t="s">
+    <row r="322" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A322" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B322" s="2" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B322" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B323" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B324" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B325" s="7" t="s">
-        <v>465</v>
+        <v>275</v>
+      </c>
+      <c r="B325" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B326" s="8" t="s">
+      <c r="B327" s="8" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A327" s="1" t="s">
+    <row r="328" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A328" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B327" s="9" t="s">
+      <c r="B328" s="9" t="s">
         <v>467</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A328" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B328" s="8" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B329" s="8" t="s">
+      <c r="B330" s="8" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A330" s="1" t="s">
+    <row r="331" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A331" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B330" s="9" t="s">
+      <c r="B331" s="9" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A331" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B331" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B332" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B333" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B334" s="10" t="s">
-        <v>474</v>
+        <v>284</v>
+      </c>
+      <c r="B334" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B337" s="11" t="s">
-        <v>477</v>
+        <v>287</v>
+      </c>
+      <c r="B337" s="10" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B338" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B338" s="11" t="s">
+      <c r="B339" s="11" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A339" s="1" t="s">
+    <row r="340" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A340" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B339" s="12" t="s">
+      <c r="B340" s="12" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A340" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B340" s="11" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B341" t="s">
-        <v>481</v>
+        <v>291</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B342" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B343" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B344" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B345" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="116" x14ac:dyDescent="0.35">
-      <c r="A345" s="1" t="s">
+    <row r="346" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A346" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B346" s="2" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A346" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B346" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B347" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B348" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B349" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B350" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B351" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B352" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B353" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B354" t="s">
         <v>493</v>
       </c>
     </row>
@@ -10970,10 +10992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CAC833-E5B0-4E5F-B594-AA589E5B92CB}">
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:A80"/>
+    <sheetView topLeftCell="A85" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11681,361 +11703,369 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B89" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B94" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B95" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B96" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B97" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B99" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B100" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B101" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>465</v>
+        <v>275</v>
+      </c>
+      <c r="B102" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B104" s="8" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B105" s="9" t="s">
         <v>467</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B107" s="8" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B108" s="9" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B108" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B109" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B110" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>474</v>
+        <v>284</v>
+      </c>
+      <c r="B111" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>477</v>
+        <v>287</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B116" s="11" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B117" s="12" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B118" t="s">
-        <v>481</v>
+        <v>291</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B119" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B120" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B121" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B123" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B124" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B125" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B126" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B127" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B128" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B129" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B130" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>831</v>
+        <v>304</v>
       </c>
       <c r="B131" t="s">
-        <v>447</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B132" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B133" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>449</v>
       </c>
     </row>

--- a/OREI_files/10-herd data/1_keys for data frames.xlsx
+++ b/OREI_files/10-herd data/1_keys for data frames.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{05D2F12A-D737-4AED-A1D2-0243AA02B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92A0653E-EED2-4AA6-87EB-EDD88D2A9087}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{05D2F12A-D737-4AED-A1D2-0243AA02B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B7A5001-5502-4A49-AEFB-9C56DC0E1238}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FFBC8AFB-7D20-4526-AE92-1A7609D5A156}"/>
+    <workbookView xWindow="38280" yWindow="3780" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{FFBC8AFB-7D20-4526-AE92-1A7609D5A156}"/>
   </bookViews>
   <sheets>
     <sheet name="incidence and elimination" sheetId="1" r:id="rId1"/>
-    <sheet name="prevalence - over time" sheetId="3" r:id="rId2"/>
-    <sheet name="prevalence - singles" sheetId="4" r:id="rId3"/>
+    <sheet name="inc and elim - EDITED" sheetId="5" r:id="rId2"/>
+    <sheet name="prevalence - over time" sheetId="3" r:id="rId3"/>
+    <sheet name="prevalence - singles" sheetId="4" r:id="rId4"/>
+    <sheet name="prev - singles EDIT may 2024" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="955">
   <si>
     <t>sort_3_15</t>
   </si>
@@ -395,9 +397,6 @@
     <t>time1_IMI_S_hyicus</t>
   </si>
   <si>
-    <t>time1_M_vitilinus</t>
-  </si>
-  <si>
     <t>time2_IMI_NAS_or_MAM</t>
   </si>
   <si>
@@ -462,9 +461,6 @@
   </si>
   <si>
     <t>time2_IMI_S_hyicus</t>
-  </si>
-  <si>
-    <t>time2_M_vitilinus</t>
   </si>
   <si>
     <t>changes_staph_sp</t>
@@ -4756,6 +4752,33 @@
   </si>
   <si>
     <t>parity GROUP for each cow enrolled; first, second, third, fourth_plus</t>
+  </si>
+  <si>
+    <t>time2_IMI_M_vitilinus</t>
+  </si>
+  <si>
+    <t>time1_IMI_M_vitilinus</t>
+  </si>
+  <si>
+    <t>shortened/moved list of vars from edited inc_elim df</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>DIM</t>
+  </si>
+  <si>
+    <t>hygiene_pick_one</t>
+  </si>
+  <si>
+    <t>ts_freq_add_new_bedding_stall_wk</t>
+  </si>
+  <si>
+    <t>ts_freq_stall_scraping_wk</t>
+  </si>
+  <si>
+    <t>ts_depth_bedding_stalls</t>
   </si>
 </sst>
 </file>
@@ -5103,6 +5126,14 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5402,8 +5433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4051056-258C-4635-A0C6-B13FC2CB137E}">
   <dimension ref="A1:L357"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" zoomScale="75" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260:XFD260"/>
+    <sheetView zoomScale="75" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5415,10 +5446,10 @@
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -5426,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -5434,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -5442,7 +5473,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -5450,7 +5481,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -5458,7 +5489,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -5466,7 +5497,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -5474,7 +5505,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -5482,7 +5513,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -5490,7 +5521,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -5498,7 +5529,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -5506,7 +5537,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -5514,7 +5545,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -5522,7 +5553,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -5530,7 +5561,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -5538,7 +5569,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5546,7 +5577,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -5554,7 +5585,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -5562,7 +5593,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -5570,7 +5601,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5578,7 +5609,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -5586,7 +5617,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5594,7 +5625,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -5602,7 +5633,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -5610,7 +5641,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -5618,7 +5649,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -5626,7 +5657,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -5634,7 +5665,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5642,7 +5673,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -5650,7 +5681,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5658,7 +5689,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -5666,7 +5697,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -5674,7 +5705,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -5682,7 +5713,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -5690,7 +5721,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -5698,7 +5729,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -5706,7 +5737,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -5714,7 +5745,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -5722,7 +5753,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -5730,7 +5761,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -5738,7 +5769,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -5746,7 +5777,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -5754,7 +5785,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -5762,7 +5793,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -5770,7 +5801,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -5778,7 +5809,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -5786,7 +5817,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -5794,7 +5825,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -5802,7 +5833,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -5810,7 +5841,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -5818,7 +5849,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -5826,7 +5857,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -5834,7 +5865,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -5842,7 +5873,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -5850,7 +5881,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -5858,7 +5889,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -5866,7 +5897,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -5874,7 +5905,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5882,7 +5913,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -5890,7 +5921,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -5898,7 +5929,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -5906,7 +5937,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -5914,7 +5945,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -5922,7 +5953,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -5930,7 +5961,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -5938,7 +5969,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -5946,7 +5977,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -5954,7 +5985,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -5962,7 +5993,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -5970,7 +6001,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -5978,7 +6009,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -5986,7 +6017,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -5994,7 +6025,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -6002,7 +6033,7 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -6010,7 +6041,7 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -6018,7 +6049,7 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -6026,7 +6057,7 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -6034,7 +6065,7 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -6042,7 +6073,7 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -6050,7 +6081,7 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -6058,7 +6089,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -6066,7 +6097,7 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -6074,7 +6105,7 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -6082,7 +6113,7 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -6090,7 +6121,7 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -6098,7 +6129,7 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -6106,7 +6137,7 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -6114,7 +6145,7 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -6122,7 +6153,7 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -6130,7 +6161,7 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -6138,7 +6169,7 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -6146,7 +6177,7 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -6154,7 +6185,7 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -6162,7 +6193,7 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -6170,7 +6201,7 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
@@ -6178,7 +6209,7 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
@@ -6186,7 +6217,7 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
@@ -6194,7 +6225,7 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
@@ -6202,7 +6233,7 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
@@ -6210,7 +6241,7 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6218,7 +6249,7 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
@@ -6226,10 +6257,10 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E103" s="27"/>
       <c r="F103" s="27"/>
@@ -6245,7 +6276,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="30"/>
@@ -6262,7 +6293,7 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D105" s="29"/>
       <c r="E105" s="30"/>
@@ -6279,7 +6310,7 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="30"/>
@@ -6296,7 +6327,7 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="30"/>
@@ -6313,7 +6344,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D108" s="32"/>
       <c r="E108" s="33"/>
@@ -6330,7 +6361,7 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
@@ -6338,7 +6369,7 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
@@ -6346,7 +6377,7 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
@@ -6354,7 +6385,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -6362,7 +6393,7 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -6370,7 +6401,7 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -6378,7 +6409,7 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -6386,7 +6417,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -6394,7 +6425,7 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -6402,7 +6433,7 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -6410,7 +6441,7 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -6418,7 +6449,7 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -6426,7 +6457,7 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -6434,7 +6465,7 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -6442,7 +6473,7 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -6450,1691 +6481,1691 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>122</v>
+        <v>947</v>
       </c>
       <c r="B125" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>145</v>
+        <v>946</v>
       </c>
       <c r="B148" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B149" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B151" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B152" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B153" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B154" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B155" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B157" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B158" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B166" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B169" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B170" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B171" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B258" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B259" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B260" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B261" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B262" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B263" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B264" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B265" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B266" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B267" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B270" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B272" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B273" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B274" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B275" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B277" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B278" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B279" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B286" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B287" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B288" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B296" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B297" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B298" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B299" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B301" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B302" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B303" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B304" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B305" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B306" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B307" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B308" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B309" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B310" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B311" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B312" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B313" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B314" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B315" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B317" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B318" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B319" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B320" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B321" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B322" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B323" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B324" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B325" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B326" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B327" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B328" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B329" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B330" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B331" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B332" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B333" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B334" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B335" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B339" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B340" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B341" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B342" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B343" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B344" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B345" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B346" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B347" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B348" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B349" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B350" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B351" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B352" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B353" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B354" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B355" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B356" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B357" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -8147,10 +8178,1026 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B5426B-4C7D-4992-A13B-9F0F54683CEA}">
+  <dimension ref="A1:B125"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" zoomScale="82" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="48.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="113.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:2" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B38" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B61" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B75" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B77" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B78" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B80" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B81" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B82" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B83" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B84" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B92" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B95" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B96" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B103" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B104" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B105" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B113" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B114" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B115" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B116" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B118" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B119" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B120" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B121" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B122" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B123" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B124" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B125" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D16:D38">
+    <sortCondition ref="D16:D38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFD4F4A-4541-4668-8124-B1B65A24A496}">
   <dimension ref="A1:B354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="94" workbookViewId="0">
+    <sheetView topLeftCell="A229" zoomScale="94" workbookViewId="0">
       <selection activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
@@ -8163,210 +9210,210 @@
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B10" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B13" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B14" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B16" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B17" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B18" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B19" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B20" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B21" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B22" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B23" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B24" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B25" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B26" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -8374,7 +9421,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -8382,7 +9429,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -8390,7 +9437,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -8398,7 +9445,7 @@
         <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -8406,7 +9453,7 @@
         <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -8414,359 +9461,359 @@
         <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B34" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B35" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B36" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B37" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B38" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B39" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B42" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B43" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B44" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B46" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B47" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B48" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B49" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B50" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B51" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B52" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B53" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B54" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B55" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B56" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B57" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B58" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B59" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B60" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B61" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B62" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B63" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B64" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B65" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B66" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B67" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B68" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B69" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B70" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B71" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="190.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B73" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B74" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B75" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B76" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B77" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -8774,7 +9821,7 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -8782,7 +9829,7 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -8790,7 +9837,7 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -8798,7 +9845,7 @@
         <v>16</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -8806,7 +9853,7 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -8814,7 +9861,7 @@
         <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -8822,7 +9869,7 @@
         <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -8830,7 +9877,7 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -8838,7 +9885,7 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -8846,7 +9893,7 @@
         <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -8854,7 +9901,7 @@
         <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -8862,7 +9909,7 @@
         <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -8870,7 +9917,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -8878,7 +9925,7 @@
         <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -8886,7 +9933,7 @@
         <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -8894,7 +9941,7 @@
         <v>28</v>
       </c>
       <c r="B93" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -8902,7 +9949,7 @@
         <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -8910,7 +9957,7 @@
         <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -8918,7 +9965,7 @@
         <v>31</v>
       </c>
       <c r="B96" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8926,7 +9973,7 @@
         <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -8934,7 +9981,7 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -8942,7 +9989,7 @@
         <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -8950,7 +9997,7 @@
         <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -8958,7 +10005,7 @@
         <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -8966,7 +10013,7 @@
         <v>37</v>
       </c>
       <c r="B102" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -8974,7 +10021,7 @@
         <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -8982,7 +10029,7 @@
         <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -8990,7 +10037,7 @@
         <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -8998,7 +10045,7 @@
         <v>41</v>
       </c>
       <c r="B106" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -9006,7 +10053,7 @@
         <v>42</v>
       </c>
       <c r="B107" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -9014,7 +10061,7 @@
         <v>43</v>
       </c>
       <c r="B108" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -9022,7 +10069,7 @@
         <v>44</v>
       </c>
       <c r="B109" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -9030,7 +10077,7 @@
         <v>45</v>
       </c>
       <c r="B110" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -9038,7 +10085,7 @@
         <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -9046,7 +10093,7 @@
         <v>47</v>
       </c>
       <c r="B112" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -9054,7 +10101,7 @@
         <v>48</v>
       </c>
       <c r="B113" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -9062,7 +10109,7 @@
         <v>49</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -9070,7 +10117,7 @@
         <v>50</v>
       </c>
       <c r="B115" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -9078,7 +10125,7 @@
         <v>51</v>
       </c>
       <c r="B116" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -9086,7 +10133,7 @@
         <v>52</v>
       </c>
       <c r="B117" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -9094,7 +10141,7 @@
         <v>53</v>
       </c>
       <c r="B118" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -9102,15 +10149,15 @@
         <v>54</v>
       </c>
       <c r="B119" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B120" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -9118,7 +10165,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -9126,7 +10173,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -9134,7 +10181,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -9142,7 +10189,7 @@
         <v>58</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -9150,7 +10197,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -9158,7 +10205,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -9166,7 +10213,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -9174,7 +10221,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -9182,7 +10229,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -9190,7 +10237,7 @@
         <v>64</v>
       </c>
       <c r="B130" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -9198,7 +10245,7 @@
         <v>65</v>
       </c>
       <c r="B131" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -9206,7 +10253,7 @@
         <v>66</v>
       </c>
       <c r="B132" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -9214,7 +10261,7 @@
         <v>67</v>
       </c>
       <c r="B133" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -9222,7 +10269,7 @@
         <v>68</v>
       </c>
       <c r="B134" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -9230,7 +10277,7 @@
         <v>69</v>
       </c>
       <c r="B135" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -9238,7 +10285,7 @@
         <v>70</v>
       </c>
       <c r="B136" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -9246,7 +10293,7 @@
         <v>71</v>
       </c>
       <c r="B137" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -9254,7 +10301,7 @@
         <v>72</v>
       </c>
       <c r="B138" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -9262,7 +10309,7 @@
         <v>73</v>
       </c>
       <c r="B139" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -9270,7 +10317,7 @@
         <v>74</v>
       </c>
       <c r="B140" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -9278,7 +10325,7 @@
         <v>75</v>
       </c>
       <c r="B141" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -9286,7 +10333,7 @@
         <v>76</v>
       </c>
       <c r="B142" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -9294,7 +10341,7 @@
         <v>77</v>
       </c>
       <c r="B143" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -9302,7 +10349,7 @@
         <v>78</v>
       </c>
       <c r="B144" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -9310,7 +10357,7 @@
         <v>79</v>
       </c>
       <c r="B145" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -9318,7 +10365,7 @@
         <v>80</v>
       </c>
       <c r="B146" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -9326,7 +10373,7 @@
         <v>81</v>
       </c>
       <c r="B147" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -9334,7 +10381,7 @@
         <v>82</v>
       </c>
       <c r="B148" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -9342,7 +10389,7 @@
         <v>83</v>
       </c>
       <c r="B149" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -9350,7 +10397,7 @@
         <v>84</v>
       </c>
       <c r="B150" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -9358,7 +10405,7 @@
         <v>85</v>
       </c>
       <c r="B151" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -9366,7 +10413,7 @@
         <v>86</v>
       </c>
       <c r="B152" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -9374,7 +10421,7 @@
         <v>87</v>
       </c>
       <c r="B153" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -9382,7 +10429,7 @@
         <v>88</v>
       </c>
       <c r="B154" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -9390,7 +10437,7 @@
         <v>89</v>
       </c>
       <c r="B155" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -9398,7 +10445,7 @@
         <v>90</v>
       </c>
       <c r="B156" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -9406,7 +10453,7 @@
         <v>94</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -9414,7 +10461,7 @@
         <v>95</v>
       </c>
       <c r="B158" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -9422,7 +10469,7 @@
         <v>96</v>
       </c>
       <c r="B159" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -9430,7 +10477,7 @@
         <v>97</v>
       </c>
       <c r="B160" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -9438,7 +10485,7 @@
         <v>98</v>
       </c>
       <c r="B161" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -9446,1079 +10493,1079 @@
         <v>99</v>
       </c>
       <c r="B162" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B163" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B164" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B165" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B166" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B168" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B169" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B170" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B171" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B172" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B173" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B174" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B175" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B176" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B177" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B178" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B179" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B180" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B181" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B182" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B183" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B184" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B185" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B186" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B187" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B188" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B189" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B190" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B191" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B192" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B193" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B194" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B195" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B196" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B197" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B198" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B199" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B201" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B202" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B203" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B204" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B205" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B206" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B207" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B208" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B209" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B211" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B212" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B213" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B214" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B215" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B216" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B217" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B218" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B219" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B220" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B221" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B222" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B223" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B224" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B225" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B226" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B227" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B228" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B229" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B230" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B231" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B232" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B233" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B234" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B235" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B236" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B237" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B238" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B239" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B240" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B241" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B242" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B244" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B245" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B246" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B247" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B248" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B249" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="23" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B250" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B251" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B252" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A254" s="24" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B254" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="24" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="24" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B257" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B258" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B259" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B260" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B261" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B262" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B263" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B264" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B265" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B266" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B267" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B268" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B269" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B270" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B271" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B272" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B273" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B274" s="16" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B275" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B276" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B277" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B278" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B279" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B280" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B281" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B282" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B283" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B284" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B285" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B286" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B287" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B288" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B289" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B290" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B291" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B292" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B293" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B294" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B295" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B296" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
@@ -10526,23 +11573,23 @@
         <v>10</v>
       </c>
       <c r="B297" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B298" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B299" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
@@ -10550,7 +11597,7 @@
         <v>8</v>
       </c>
       <c r="B300" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
@@ -10558,31 +11605,31 @@
         <v>11</v>
       </c>
       <c r="B301" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B302" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B303" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="14" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B304" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
@@ -10590,7 +11637,7 @@
         <v>12</v>
       </c>
       <c r="B305" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
@@ -10598,15 +11645,15 @@
         <v>13</v>
       </c>
       <c r="B306" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B307" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
@@ -10614,375 +11661,375 @@
         <v>55</v>
       </c>
       <c r="B308" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B309" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B310" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B311" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B312" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B313" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="14" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B314" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B316" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B318" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B319" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B320" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B321" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B323" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B324" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B325" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B332" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B333" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B334" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B342" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B343" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B344" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B345" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B347" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B348" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B349" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B350" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B351" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B352" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B353" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B354" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -10990,12 +12037,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CAC833-E5B0-4E5F-B594-AA589E5B92CB}">
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:XFD89"/>
+    <sheetView topLeftCell="A110" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11007,18 +12054,18 @@
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -11026,7 +12073,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -11034,7 +12081,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -11042,7 +12089,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -11050,15 +12097,15 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B8" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -11066,1007 +12113,1435 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B10" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B11" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B12" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B31" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B34" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B35" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B36" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B37" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B39" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B40" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B41" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B42" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B43" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B44" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B45" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B47" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B48" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B49" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B51" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B52" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B53" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B54" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B55" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B56" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B57" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B58" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B59" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B60" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B61" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B62" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B63" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B64" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B65" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B66" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B67" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B68" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B69" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B70" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B71" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B72" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B73" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B74" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B75" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B76" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B77" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B78" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B79" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B80" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B87" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B89" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B90" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B93" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B95" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B96" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B97" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B98" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B100" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B101" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B102" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B109" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B110" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B111" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B119" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B120" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B121" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B122" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B124" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B125" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B126" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B127" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B128" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B129" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B130" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B131" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B132" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B133" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B134" t="s">
-        <v>449</v>
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F50D0A2-1EC3-4E69-BBC4-3E755BE648DC}">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="74" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B6" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B10" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B28" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B29" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B33" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B36" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B37" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B38" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B39" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
